--- a/Results/BrokenLinksResults/verifyBrokenImagesOnLandingPage.xlsx
+++ b/Results/BrokenLinksResults/verifyBrokenImagesOnLandingPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="249">
   <si>
     <t>https://cartlow.com/web-assets/img/icons/icon-close-dark.svg</t>
   </si>
@@ -660,6 +660,105 @@
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967a1ffa-d334-47c0-aa43-5deb28473eed.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661ba90-b533-4f98-af6c-73f833599d64.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661eb07-f3f1-4de9-98fb-e2230c161389.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671f92b-7ef3-4983-92ff-0c559280d0d8.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/fujitsu.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677d2a4-9e7c-4c3a-be61-141fdf03d728.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bower.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/3f2f04e1fa55a33c47f69fdac0bf6333.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/18b260a3a064fc4b887820679e4bd01e.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/easycover.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/gopro.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/hama.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/rokinon.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a4790-7f27-456d-8c00-c1c6f7875207.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/phottix.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/46616b836e6bf7bb89869676e8aca86c.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966629fc-eb5e-4a3c-9a54-7cf424c652c3.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96603777-4853-4f2b-8e7a-1c5133d53d04.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/switch.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d500-1e59-459e-a242-b631118f7580.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966022d0-f41f-4518-9c55-133e392de328.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/028c9e78461f5fc95f9fd315649ca2c6.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661eb6a-85fa-49f5-aff2-943c46ed4da5.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966207ba-0397-4ce4-9650-b85a2809360a.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661b9f6-75c7-4522-b110-3a0b4aa4750b.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d032-591d-488f-b155-dbafc24163ad.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d1eb-1701-4a0b-b0f7-7defd457ac9d.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/965ff352-8e4a-40e3-8012-35e5da11fd2a.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/965ff27f-cb36-4ad5-9d2a-6e6e2373736b.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662c994-f911-438a-b52a-b83515f8747f.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663cfea-1433-4e5d-af21-b18c5b3d0cec.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/pixie.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9667b332-14cc-432d-9218-21ea994d49c3.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/smurfs.jpg</t>
   </si>
 </sst>
 </file>
@@ -704,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:C275"/>
+  <dimension ref="B2:C318"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2902,6 +3001,350 @@
         <v>1</v>
       </c>
     </row>
+    <row r="276">
+      <c r="B276" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Results/BrokenLinksResults/verifyBrokenImagesOnLandingPage.xlsx
+++ b/Results/BrokenLinksResults/verifyBrokenImagesOnLandingPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="418">
   <si>
     <t xml:space="preserve">No# </t>
   </si>
@@ -218,66 +218,66 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/6e61bf042ef5526f9af219e439588530.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/06beb5daaf81f41ba3a4977fbb974a25.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/zonixplay.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/06beb5daaf81f41ba3a4977fbb974a25.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/91ceb4fe51220dcfce14eec0021e1e90.png</t>
   </si>
   <si>
     <t>Not Found</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966067ca-c7c4-4ff0-8933-4752f4ccd92a.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/fb817c9269748e0e45458c04061b3b63.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/328028963d9958a0d8deb89d241a6b9e.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/meetion.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/fb817c9269748e0e45458c04061b3b63.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/f238e68f146ceefb25102297f5b84863.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a4ffd-aea4-42f3-ba01-7b6a81a3619f.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/4b2adfadfd12120c1c51c59fc88ec4e1.jpg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/360648fe919ba3077e20fd3ee8ec9773.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a4ffd-aea4-42f3-ba01-7b6a81a3619f.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/0edc403e499c3a6721d71d481ddc4651.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/976f9dba-046d-454a-a3ae-22eee88bb28e.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/philips.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/tcl.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/philips.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96780898-4962-46da-8cc3-8bb4e7d64ef2.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/976f9dba-046d-454a-a3ae-22eee88bb28e.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/f8d4efa91e47ad33031821407c20bebb.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966067ca-c7c4-4ff0-8933-4752f4ccd92a.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/mindpure.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a3b61-1806-4ec0-891f-09b0504f9b41.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/02ada3c1d485d6309bbcb43e11187b9e.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/d181ba1e58ff8aaa8e384c9e71769fdb.png</t>
   </si>
   <si>
@@ -320,153 +320,150 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/restaurantware.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96600828-a589-4bd6-a191-42fdeb7cc4fd.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/dessini.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96600828-a589-4bd6-a191-42fdeb7cc4fd.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/blackdecker.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9660083f-c8ce-4acc-afd9-014df88c28e1.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661aeeb-58cc-49ee-b63d-721d8003e416.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/naviforce.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/casio.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/skmei.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/mathey-tissot.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661edcd-cd2e-4173-862b-e20be9ec7e8a.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/3f624491b413588ab737000caaccc0c9.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/757798789a8bc27152138c2edbcf3fdd.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/02db7c9fe990d4dc6df3b0c59b63199f.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/66d13093138acf5f2debe06d613d973e.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/616efde975e97629c67e3c2336cb6509.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/301cdf93b09ceb4fba75b468e71af100.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/deerma.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bissell.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/irobot.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966037a4-829c-4c47-9b60-6cbb5195feb6.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/midea.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/abfa7f87db389d35bf28c61b7228c802.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/d2df7b17e8620cc50080e7b4ea7df265.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/sharp.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bayara.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/hotpack.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/purna.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967a1132-5e5b-4263-ad36-5e5060d2002c.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/tom-jerry.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/masafi.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/nellara.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/persil.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967824f5-72d7-49ce-a7c6-6282ea99e361.jpeg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/natus.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/dettol.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bath-body-works.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671eadb-681a-4407-b257-7a41e62fd51e.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/garnier.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/970cc33e-e165-4d32-a329-f378048ae245.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/01c04222a6bdfa59980d455310a74f3c.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/cf395a3dd3d33606f3392a59263044c0.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/naviforce.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/casio.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/skmei.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/mathey-tissot.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661edcd-cd2e-4173-862b-e20be9ec7e8a.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/3f624491b413588ab737000caaccc0c9.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/757798789a8bc27152138c2edbcf3fdd.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/02db7c9fe990d4dc6df3b0c59b63199f.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/66d13093138acf5f2debe06d613d973e.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/616efde975e97629c67e3c2336cb6509.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/970cca25-61da-4d33-8e14-e43e4f928419.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/deerma.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bissell.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/irobot.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966037a4-829c-4c47-9b60-6cbb5195feb6.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/midea.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/abfa7f87db389d35bf28c61b7228c802.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/d2df7b17e8620cc50080e7b4ea7df265.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/cb324e5feadea557874ef8e6ff769ef0.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bayara.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/hotpack.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/purna.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/persil.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967a1132-5e5b-4263-ad36-5e5060d2002c.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/tom-jerry.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/masafi.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/nellara.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967824f5-72d7-49ce-a7c6-6282ea99e361.jpeg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/natus.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bath-body-works.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/dettol.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671eadb-681a-4407-b257-7a41e62fd51e.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/garnier.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/970cc33e-e165-4d32-a329-f378048ae245.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/dove.jpg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/nivea.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96621448-cc3d-4a01-b67b-f2403b4d02c9.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/fcd9f758603c509aa9e2a6a3415539d1.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/nintendo.jpeg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96640cab-eb8e-4f3b-a5d7-7d5115ca16d6.jpeg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966c313c-05ad-4084-93c4-6e1ebcc97e85.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/nintendo.jpeg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d659-a3b5-4151-9503-70122470bb94.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96780bf1-c8e1-4c22-bf3a-af74cf5dde78.jpeg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967a032e-ba8c-4f8f-bf78-5af2d72eae1e.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967045ca-8d0f-4e5e-8f8f-9f45ff94bbec.png</t>
   </si>
   <si>
@@ -491,12 +488,12 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bestway.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966024a6-0e19-46ba-89c2-69034da4a1f3.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/pioneer.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966024a6-0e19-46ba-89c2-69034da4a1f3.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661caa5-550d-4da9-8ffd-1558b4af596c.jpg</t>
   </si>
   <si>
@@ -506,15 +503,12 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/gravel.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677fa23-b7bf-4e3e-8fa8-400c5d14a922.jpeg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/kleine-wolke.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677fa23-b7bf-4e3e-8fa8-400c5d14a922.jpeg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/asir-group-llc.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663dc62-e9e2-4b7b-8d6d-3d5371c69636.png</t>
   </si>
   <si>
@@ -527,21 +521,12 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966febec-9b53-4863-b578-6e79c3533013.jfif</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/895ebed15772994e3a650db0c117a356.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663dc9c-944b-40b2-952e-d60b6716dd0d.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96721b30-611b-4c10-8512-45030003ef9b.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/6f65a4128b1c5da871beae155cdfdd01.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96621448-cc3d-4a01-b67b-f2403b4d02c9.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/2c74c6124c3d407747ec3a7212748d0f.png</t>
   </si>
   <si>
@@ -560,21 +545,18 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/965fe38d-096d-4d52-b427-3780bc8b3551.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96681238-0ab9-4f2c-be77-37106cf3acb0.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/e9138472c62adbf4e0a5af3174f12ff2.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96681238-0ab9-4f2c-be77-37106cf3acb0.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966bb4d7-4ac1-400d-ac3e-0d354c752fc7.jpg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/8fc925774f8f1a8355311ce5eceea2be.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969c24ef-ba13-404b-aa02-47b873884a72.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d191-1994-454e-8765-115ec93b953b.png</t>
   </si>
   <si>
@@ -584,6 +566,9 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9665e9ff-842e-4a8f-b1fe-5ce636b9eb3f.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966bbe4d-1f64-42f4-b608-e587e142bf87.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663c643-3f79-4407-916d-331365b17aa8.jpg</t>
   </si>
   <si>
@@ -596,16 +581,16 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/essence.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/1a046b7e4c1cd6a475a21c44b5318b72.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969c1b04-f61f-4ecb-824d-0fdd680a9572.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/1a046b7e4c1cd6a475a21c44b5318b72.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/d630a30108a47e44362ce557621c250c.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96620593-eb5a-4029-a20c-e69b550f1e2f.png</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/maybelline-new-york.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/divage.png</t>
@@ -620,24 +605,24 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/965ff6a4-f8f8-4623-802a-2a8fab2ee95f.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a305e-c4dd-42ee-82fa-b8860f1bbc8d.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966635a9-8c85-462b-afce-9dbb5064fd3c.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662e13c-31e2-4166-969c-b916a6291ace.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a305e-c4dd-42ee-82fa-b8860f1bbc8d.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663de19-3f46-4bba-92ba-771ebe5018ea.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967219b1-41ac-4d6f-9005-1522f1c72b27.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/ultrasport.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967219b1-41ac-4d6f-9005-1522f1c72b27.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/vango.png</t>
   </si>
   <si>
@@ -674,27 +659,24 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661ba90-b533-4f98-af6c-73f833599d64.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671f92b-7ef3-4983-92ff-0c559280d0d8.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661eb07-f3f1-4de9-98fb-e2230c161389.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671f92b-7ef3-4983-92ff-0c559280d0d8.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/fujitsu.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677d2a4-9e7c-4c3a-be61-141fdf03d728.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bower.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/18b260a3a064fc4b887820679e4bd01e.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/3f2f04e1fa55a33c47f69fdac0bf6333.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/18b260a3a064fc4b887820679e4bd01e.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/easycover.png</t>
   </si>
   <si>
@@ -710,21 +692,21 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a4790-7f27-456d-8c00-c1c6f7875207.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/phottix.png</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663e666-f358-43a3-81a4-90ac0d39b432.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/46616b836e6bf7bb89869676e8aca86c.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967446f0-e252-4c70-adff-a02080d089c0.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/976f9ee7-dd11-4411-9ee6-e67f2535a1d7.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/966629fc-eb5e-4a3c-9a54-7cf424c652c3.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96603777-4853-4f2b-8e7a-1c5133d53d04.jpg</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/switch.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661d500-1e59-459e-a242-b631118f7580.png</t>
   </si>
   <si>
@@ -758,9 +740,6 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662c994-f911-438a-b52a-b83515f8747f.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663cfea-1433-4e5d-af21-b18c5b3d0cec.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/pixie.png</t>
   </si>
   <si>
@@ -776,48 +755,45 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96620f61-6245-4831-9991-32121a21e805.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/badabulle.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969a6b35-4e45-43af-ac71-c6aae9cf832b.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/badabulle.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663f8fb-4b99-4969-b8e9-f1cfa12f9b7f.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677f7ce-75d7-4c26-b712-14d24e5fd7f1.jpeg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663d819-7f26-468d-ae96-edde6692bbf9.jfif</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677f7ce-75d7-4c26-b712-14d24e5fd7f1.jpeg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96682ab6-821e-4e04-80ff-caf83f3b9cf7.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/jilong.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662e65f-88c9-4357-b3bb-f6bca2084e88.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661b939-4ee4-45f8-8392-114a6758dfbb.png</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662c20d-3878-497e-a27b-a1d4661b59ec.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bosphorus.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96621389-0e9f-48cc-84d0-be7103006cd7.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662c20d-3878-497e-a27b-a1d4661b59ec.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/bosphorus.png</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/maxi.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663d7c5-f65a-43b3-bcc2-f6fb2eb88fe2.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9663c777-d6d8-4fb5-8ba8-7de64e44efcf.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661c3be-5066-4e68-8bd9-2421a9ecc3df.jpg</t>
   </si>
   <si>
@@ -851,21 +827,21 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967825ba-09de-4e8e-b831-537abff6bf7c.jpeg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96600477-7e14-435f-a38d-ad91dda20063.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96603373-e06c-4e8c-9c0d-5be740ce192f.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96600477-7e14-435f-a38d-ad91dda20063.jpg</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/under-armour.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/965fe9c1-f7d7-40ed-b856-3d012fa63fa6.jpg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662bd62-725e-4bcd-b213-4e92661edf13.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/under-armour.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96705cda-ef8a-47bf-907a-fa0a884be135.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/967a3aae-0105-4b45-adb7-0f2d889c1e3f.png</t>
   </si>
   <si>
@@ -878,21 +854,24 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9662c16d-a655-4258-a59e-75b6288d684b.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/969c721c-bc8b-48ec-b548-f7a97e97b39a.png</t>
-  </si>
-  <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96b2a230-8fc8-4ee9-8efc-bceab12dee83.png</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9677e278-ac8e-4be4-9876-7ab420d1d979.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/audio-technica.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9661f37f-7d96-49a0-b675-486aec957d7a.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96646000-8ccf-4019-bb0f-e33b5f6ca606.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96660d96-32e0-47a5-a76a-28af3e2ce75b.png</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/umbra.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/96660d96-32e0-47a5-a76a-28af3e2ce75b.png</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/trixie.png</t>
   </si>
   <si>
@@ -914,9 +893,6 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/9671e799-2245-41d2-bfe2-1e82e45fa02a.jfif</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/970cb771-f57c-4602-928a-b9ab9f948f78.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/50x0/brands/c08858d259f06ca7ce95425cf275a73d.png</t>
   </si>
   <si>
@@ -935,7 +911,7 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/1200x0/web-banners/647479d5d1728bd52f7adddcd862bb06.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/1200x0/web-banners/34e0beb031b62306f71f7ae44701c09d.png</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/1200x0/web-banners/4a27ce4af688275782339f7e0cf727be.png</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/1200x0/web-banners/e8485b85ca2b8568487c45afbc34a2ac.png</t>
@@ -971,7 +947,7 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/500x0/category/96e55c9c-4655-49c7-8f1a-a626e3bf51a4.png</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10564170004_0.jpg</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9787cabb-9a6b-4332-82b9-1a55d9d8260a.jpg</t>
   </si>
   <si>
     <t>https://cartlow.com/web-assets/img/icons/icon-cartlow.svg</t>
@@ -989,9 +965,6 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/961b5e00-2345-4999-8889-6da07975217f.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/947366a9-538e-4fdd-b99b-95be5203d4ed.jpg</t>
-  </si>
-  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10273540020_0.jpg</t>
   </si>
   <si>
@@ -1001,7 +974,10 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9484f281-06f6-4a69-8219-4af1e8cc251a.jpg</t>
   </si>
   <si>
-    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/94837e2d-cad5-44f5-9654-7c10869299d7.jpg</t>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/948395e1-5652-407a-b135-ff3f51790c33.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/94d962f4-4c86-408d-83ee-24df364c9098.jpg</t>
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/fb11186ece3483a9505644382d0ccf60.jpeg</t>
@@ -1076,6 +1052,9 @@
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9461169d-803e-4211-b16b-4994a6d6f28e.jpg</t>
   </si>
   <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9722e2e4-a6a3-4f2c-82f6-a563d5d420be.jpg</t>
+  </si>
+  <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/970cdd42-9792-4c46-9765-204f0fa9be07.jpg</t>
   </si>
   <si>
@@ -1143,6 +1122,150 @@
   </si>
   <si>
     <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10882290003_0.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/c4f09d6ea774fe04c64d672add2f0848.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/e8c2104875c3c1f5212332a48a3f1ff5.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/2439e25493a3067d9e6bd1b475fb0394.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/96fa95aa-6090-445b-a7f1-85273c9ce64e.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/97717ded-ee58-4173-b6b5-7c5ab3eba582.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10842710003_0.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/4233f98a9e47b44a22c95588e1c88c96.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10478060004_0.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/1567617543_2408.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/10843460003_0.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/1578221949_2408.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/41710d125cadb024a897598d903e8a43.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/fa19a7ae25cc8c7a39efc3a6b074cc29.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/95666b80-60b2-4304-8c63-85966ea0b17e.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/bf26468e18cc9cb0fd5f4e593a3dab81.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9552a92c-d522-465a-b1c6-f2dde6f51ff1.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/95827be8-d151-43d4-874d-1fad263cafd8.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/a0feeb7c4f69a7c06c026b64a306c3db.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/953a0cbe-615b-4953-b7b1-d090bee959e3.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/953a0ab9-410f-4718-af03-ef0264e874fe.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/9510add7-a348-4eea-bdf1-e7efef582d96.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0//product/955a37f1-ffb2-400d-9ea8-20f6734ab7e1.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/200x0/items/4e4fb87c1bef44750a364fb288169f2a.jpg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/735d371232b391011de480ba4a66326d.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/121e26fbe9d51ad513586d990f25f38a.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/b75d1e573d730b3794745e7550eb664a.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/f5a4618a53691832f11b5801ae4a1f78.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/800x0/background/efb978b7035d316e0fd871209c5f679c.png</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/icons/icon-double-arrow-right.svg</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/7fa926f25932ddf9a7feea6d0e4549c1.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/f6e1aff746de39cafe5f5a033bc04aef.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/cca63c05c496bf1326dfde45c057256b.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/50733f5809ee1105cbe4620726c5b228.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/be733892f6b60c7376eb53f9d228ae7f.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/49d1a4af3e9907d9184e9682bf7ee44a.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/de147a4fc94089237fdcef1e9117201e.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/7a1d2b68e75c33c9e3e547101a011785.png</t>
+  </si>
+  <si>
+    <t>https://jmd2ficarl.execute-api.us-east-2.amazonaws.com/news/a9e4a936369b03d9c8b18be2f0073961.png</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-app-gallery.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-google-play.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-app-store.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-facebook.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-twitter.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-instagram.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/icon-linkedin.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/01-payment-method-footer.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/03-payment-method-footer.svg</t>
+  </si>
+  <si>
+    <t>https://cartlow.com/web-assets/img/footer/04-payment-method-footer.svg</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C550"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1206,7 +1329,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>165888.0</v>
+        <v>246151.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>3</v>
@@ -1217,7 +1340,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>165889.0</v>
+        <v>246152.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>5</v>
@@ -1228,7 +1351,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>165890.0</v>
+        <v>246153.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -1239,7 +1362,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>165891.0</v>
+        <v>246154.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -1250,7 +1373,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>165892.0</v>
+        <v>246155.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>3</v>
@@ -1261,7 +1384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>165893.0</v>
+        <v>246156.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>5</v>
@@ -1272,7 +1395,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>165894.0</v>
+        <v>246157.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>6</v>
@@ -1283,7 +1406,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>165895.0</v>
+        <v>246158.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>7</v>
@@ -1294,7 +1417,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>165896.0</v>
+        <v>246159.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>3</v>
@@ -1305,7 +1428,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>165897.0</v>
+        <v>246160.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
@@ -1316,7 +1439,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>165898.0</v>
+        <v>246161.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>3</v>
@@ -1327,7 +1450,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>165899.0</v>
+        <v>246162.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>8</v>
@@ -1338,7 +1461,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>165900.0</v>
+        <v>246163.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>9</v>
@@ -1349,7 +1472,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>165901.0</v>
+        <v>246164.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>8</v>
@@ -1360,7 +1483,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>165902.0</v>
+        <v>246165.0</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>10</v>
@@ -1371,7 +1494,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>165903.0</v>
+        <v>246166.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>11</v>
@@ -1382,7 +1505,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>165904.0</v>
+        <v>246167.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>12</v>
@@ -1393,7 +1516,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>165905.0</v>
+        <v>246168.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>13</v>
@@ -1404,7 +1527,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>165906.0</v>
+        <v>246169.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>13</v>
@@ -1415,7 +1538,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>165907.0</v>
+        <v>246170.0</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>14</v>
@@ -1426,7 +1549,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>165908.0</v>
+        <v>246171.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>15</v>
@@ -1437,7 +1560,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>165909.0</v>
+        <v>246172.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>16</v>
@@ -1448,7 +1571,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>165910.0</v>
+        <v>246173.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>17</v>
@@ -1459,7 +1582,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>165911.0</v>
+        <v>246174.0</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>18</v>
@@ -1470,7 +1593,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>165912.0</v>
+        <v>246175.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>19</v>
@@ -1481,7 +1604,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>165913.0</v>
+        <v>246176.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>20</v>
@@ -1492,7 +1615,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>165914.0</v>
+        <v>246177.0</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>21</v>
@@ -1503,7 +1626,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>165915.0</v>
+        <v>246178.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>22</v>
@@ -1514,7 +1637,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="0">
-        <v>165916.0</v>
+        <v>246179.0</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>23</v>
@@ -1525,7 +1648,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="0">
-        <v>165917.0</v>
+        <v>246180.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>24</v>
@@ -1536,7 +1659,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="0">
-        <v>165918.0</v>
+        <v>246181.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>25</v>
@@ -1547,7 +1670,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="0">
-        <v>165919.0</v>
+        <v>246182.0</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>26</v>
@@ -1558,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="0">
-        <v>165920.0</v>
+        <v>246183.0</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>27</v>
@@ -1569,7 +1692,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="0">
-        <v>165921.0</v>
+        <v>246184.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>28</v>
@@ -1580,7 +1703,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="0">
-        <v>165922.0</v>
+        <v>246185.0</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>29</v>
@@ -1591,7 +1714,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="0">
-        <v>165923.0</v>
+        <v>246186.0</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>30</v>
@@ -1602,7 +1725,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="0">
-        <v>165924.0</v>
+        <v>246187.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>31</v>
@@ -1613,7 +1736,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="0">
-        <v>165925.0</v>
+        <v>246188.0</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>32</v>
@@ -1624,7 +1747,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="0">
-        <v>165926.0</v>
+        <v>246189.0</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>33</v>
@@ -1635,7 +1758,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="0">
-        <v>165927.0</v>
+        <v>246190.0</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>34</v>
@@ -1646,7 +1769,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="0">
-        <v>165928.0</v>
+        <v>246191.0</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>35</v>
@@ -1657,7 +1780,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="0">
-        <v>165929.0</v>
+        <v>246192.0</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>36</v>
@@ -1668,7 +1791,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="0">
-        <v>165930.0</v>
+        <v>246193.0</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>37</v>
@@ -1679,7 +1802,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="0">
-        <v>165931.0</v>
+        <v>246194.0</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>38</v>
@@ -1690,7 +1813,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="0">
-        <v>165932.0</v>
+        <v>246195.0</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>39</v>
@@ -1701,7 +1824,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="0">
-        <v>165933.0</v>
+        <v>246196.0</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>40</v>
@@ -1712,7 +1835,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="0">
-        <v>165934.0</v>
+        <v>246197.0</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>41</v>
@@ -1723,7 +1846,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="0">
-        <v>165935.0</v>
+        <v>246198.0</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>42</v>
@@ -1734,7 +1857,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="0">
-        <v>165936.0</v>
+        <v>246199.0</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>43</v>
@@ -1745,7 +1868,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="0">
-        <v>165937.0</v>
+        <v>246200.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>44</v>
@@ -1756,7 +1879,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="0">
-        <v>165938.0</v>
+        <v>246201.0</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>45</v>
@@ -1767,7 +1890,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="0">
-        <v>165939.0</v>
+        <v>246202.0</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>46</v>
@@ -1778,7 +1901,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="0">
-        <v>165940.0</v>
+        <v>246203.0</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>47</v>
@@ -1789,7 +1912,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="0">
-        <v>165941.0</v>
+        <v>246204.0</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>48</v>
@@ -1800,7 +1923,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="0">
-        <v>165942.0</v>
+        <v>246205.0</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>49</v>
@@ -1811,7 +1934,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="0">
-        <v>165943.0</v>
+        <v>246206.0</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>50</v>
@@ -1822,7 +1945,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="0">
-        <v>165944.0</v>
+        <v>246207.0</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>51</v>
@@ -1833,7 +1956,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="0">
-        <v>165945.0</v>
+        <v>246208.0</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>52</v>
@@ -1844,7 +1967,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="0">
-        <v>165946.0</v>
+        <v>246209.0</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>53</v>
@@ -1855,7 +1978,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="0">
-        <v>165947.0</v>
+        <v>246210.0</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>54</v>
@@ -1866,7 +1989,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="0">
-        <v>165948.0</v>
+        <v>246211.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>55</v>
@@ -1877,7 +2000,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="0">
-        <v>165949.0</v>
+        <v>246212.0</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>56</v>
@@ -1888,7 +2011,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="0">
-        <v>165950.0</v>
+        <v>246213.0</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>57</v>
@@ -1899,7 +2022,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n" s="0">
-        <v>165951.0</v>
+        <v>246214.0</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>58</v>
@@ -1910,7 +2033,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="0">
-        <v>165952.0</v>
+        <v>246215.0</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>59</v>
@@ -1921,7 +2044,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="0">
-        <v>165953.0</v>
+        <v>246216.0</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>60</v>
@@ -1932,7 +2055,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="0">
-        <v>165954.0</v>
+        <v>246217.0</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>61</v>
@@ -1943,7 +2066,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="0">
-        <v>165955.0</v>
+        <v>246218.0</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>62</v>
@@ -1954,7 +2077,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="0">
-        <v>165956.0</v>
+        <v>246219.0</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>63</v>
@@ -1965,7 +2088,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="0">
-        <v>165957.0</v>
+        <v>246220.0</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>64</v>
@@ -1976,7 +2099,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="0">
-        <v>165958.0</v>
+        <v>246221.0</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>65</v>
@@ -1987,7 +2110,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="0">
-        <v>165959.0</v>
+        <v>246222.0</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>54</v>
@@ -1998,7 +2121,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="0">
-        <v>165960.0</v>
+        <v>246223.0</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>66</v>
@@ -2009,10 +2132,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="0">
-        <v>165961.0</v>
+        <v>246224.0</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>4</v>
@@ -2020,10 +2143,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="0">
-        <v>165962.0</v>
+        <v>246225.0</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>4</v>
@@ -2031,7 +2154,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="0">
-        <v>165963.0</v>
+        <v>246226.0</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>68</v>
@@ -2042,7 +2165,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="0">
-        <v>165964.0</v>
+        <v>246227.0</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>69</v>
@@ -2053,7 +2176,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="0">
-        <v>165965.0</v>
+        <v>246228.0</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>70</v>
@@ -2064,7 +2187,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n" s="0">
-        <v>165966.0</v>
+        <v>246229.0</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>72</v>
@@ -2075,7 +2198,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="0">
-        <v>165967.0</v>
+        <v>246230.0</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>73</v>
@@ -2086,7 +2209,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="0">
-        <v>165968.0</v>
+        <v>246231.0</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>74</v>
@@ -2097,7 +2220,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="0">
-        <v>165969.0</v>
+        <v>246232.0</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>55</v>
@@ -2108,7 +2231,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="0">
-        <v>165970.0</v>
+        <v>246233.0</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>75</v>
@@ -2119,7 +2242,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n" s="0">
-        <v>165971.0</v>
+        <v>246234.0</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>76</v>
@@ -2130,7 +2253,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="0">
-        <v>165972.0</v>
+        <v>246235.0</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>77</v>
@@ -2141,7 +2264,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="0">
-        <v>165973.0</v>
+        <v>246236.0</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>78</v>
@@ -2152,7 +2275,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="0">
-        <v>165974.0</v>
+        <v>246237.0</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>79</v>
@@ -2163,7 +2286,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n" s="0">
-        <v>165975.0</v>
+        <v>246238.0</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>80</v>
@@ -2174,7 +2297,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="0">
-        <v>165976.0</v>
+        <v>246239.0</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>81</v>
@@ -2185,7 +2308,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="0">
-        <v>165977.0</v>
+        <v>246240.0</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>82</v>
@@ -2196,7 +2319,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="0">
-        <v>165978.0</v>
+        <v>246241.0</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>83</v>
@@ -2207,7 +2330,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="0">
-        <v>165979.0</v>
+        <v>246242.0</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>61</v>
@@ -2218,29 +2341,29 @@
     </row>
     <row r="94">
       <c r="A94" t="n" s="0">
-        <v>165980.0</v>
+        <v>246243.0</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="0">
-        <v>165981.0</v>
+        <v>246244.0</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="0">
-        <v>165982.0</v>
+        <v>246245.0</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>54</v>
@@ -2251,10 +2374,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="0">
-        <v>165983.0</v>
+        <v>246246.0</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>4</v>
@@ -2262,7 +2385,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="0">
-        <v>165984.0</v>
+        <v>246247.0</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>55</v>
@@ -2273,10 +2396,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n" s="0">
-        <v>165985.0</v>
+        <v>246248.0</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>4</v>
@@ -2284,10 +2407,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n" s="0">
-        <v>165986.0</v>
+        <v>246249.0</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>4</v>
@@ -2295,10 +2418,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n" s="0">
-        <v>165987.0</v>
+        <v>246250.0</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>4</v>
@@ -2306,10 +2429,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="0">
-        <v>165988.0</v>
+        <v>246251.0</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>4</v>
@@ -2317,10 +2440,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="0">
-        <v>165989.0</v>
+        <v>246252.0</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>4</v>
@@ -2328,10 +2451,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n" s="0">
-        <v>165990.0</v>
+        <v>246253.0</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>4</v>
@@ -2339,10 +2462,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="0">
-        <v>165991.0</v>
+        <v>246254.0</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>4</v>
@@ -2350,10 +2473,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n" s="0">
-        <v>165992.0</v>
+        <v>246255.0</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>4</v>
@@ -2361,10 +2484,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n" s="0">
-        <v>165993.0</v>
+        <v>246256.0</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>4</v>
@@ -2372,10 +2495,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="0">
-        <v>165994.0</v>
+        <v>246257.0</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>4</v>
@@ -2383,10 +2506,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="0">
-        <v>165995.0</v>
+        <v>246258.0</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>4</v>
@@ -2394,10 +2517,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="0">
-        <v>165996.0</v>
+        <v>246259.0</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>4</v>
@@ -2405,10 +2528,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="0">
-        <v>165997.0</v>
+        <v>246260.0</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>4</v>
@@ -2416,10 +2539,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="0">
-        <v>165998.0</v>
+        <v>246261.0</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>4</v>
@@ -2427,10 +2550,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="0">
-        <v>165999.0</v>
+        <v>246262.0</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>4</v>
@@ -2438,10 +2561,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="0">
-        <v>166000.0</v>
+        <v>246263.0</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>4</v>
@@ -2449,10 +2572,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="0">
-        <v>166001.0</v>
+        <v>246264.0</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>4</v>
@@ -2460,10 +2583,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n" s="0">
-        <v>166002.0</v>
+        <v>246265.0</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>4</v>
@@ -2471,10 +2594,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="0">
-        <v>166003.0</v>
+        <v>246266.0</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>4</v>
@@ -2482,10 +2605,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="0">
-        <v>166004.0</v>
+        <v>246267.0</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>4</v>
@@ -2493,10 +2616,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="0">
-        <v>166005.0</v>
+        <v>246268.0</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>4</v>
@@ -2504,10 +2627,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="0">
-        <v>166006.0</v>
+        <v>246269.0</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>4</v>
@@ -2515,10 +2638,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n" s="0">
-        <v>166007.0</v>
+        <v>246270.0</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>4</v>
@@ -2526,10 +2649,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n" s="0">
-        <v>166008.0</v>
+        <v>246271.0</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>4</v>
@@ -2537,10 +2660,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n" s="0">
-        <v>166009.0</v>
+        <v>246272.0</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>4</v>
@@ -2548,10 +2671,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="0">
-        <v>166010.0</v>
+        <v>246273.0</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>4</v>
@@ -2559,10 +2682,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="0">
-        <v>166011.0</v>
+        <v>246274.0</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>4</v>
@@ -2570,10 +2693,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n" s="0">
-        <v>166012.0</v>
+        <v>246275.0</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>4</v>
@@ -2581,10 +2704,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="0">
-        <v>166013.0</v>
+        <v>246276.0</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>4</v>
@@ -2592,10 +2715,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n" s="0">
-        <v>166014.0</v>
+        <v>246277.0</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>4</v>
@@ -2603,10 +2726,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n" s="0">
-        <v>166015.0</v>
+        <v>246278.0</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>4</v>
@@ -2614,10 +2737,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="0">
-        <v>166016.0</v>
+        <v>246279.0</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>4</v>
@@ -2625,10 +2748,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="0">
-        <v>166017.0</v>
+        <v>246280.0</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>4</v>
@@ -2636,10 +2759,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="0">
-        <v>166018.0</v>
+        <v>246281.0</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>4</v>
@@ -2647,10 +2770,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="0">
-        <v>166019.0</v>
+        <v>246282.0</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>4</v>
@@ -2658,10 +2781,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="0">
-        <v>166020.0</v>
+        <v>246283.0</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>4</v>
@@ -2669,10 +2792,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n" s="0">
-        <v>166021.0</v>
+        <v>246284.0</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>4</v>
@@ -2680,10 +2803,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n" s="0">
-        <v>166022.0</v>
+        <v>246285.0</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>4</v>
@@ -2691,10 +2814,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n" s="0">
-        <v>166023.0</v>
+        <v>246286.0</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>4</v>
@@ -2702,10 +2825,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n" s="0">
-        <v>166024.0</v>
+        <v>246287.0</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>4</v>
@@ -2713,10 +2836,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n" s="0">
-        <v>166025.0</v>
+        <v>246288.0</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>4</v>
@@ -2724,10 +2847,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n" s="0">
-        <v>166026.0</v>
+        <v>246289.0</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>4</v>
@@ -2735,10 +2858,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n" s="0">
-        <v>166027.0</v>
+        <v>246290.0</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>4</v>
@@ -2746,10 +2869,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n" s="0">
-        <v>166028.0</v>
+        <v>246291.0</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>4</v>
@@ -2757,7 +2880,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n" s="0">
-        <v>166029.0</v>
+        <v>246292.0</v>
       </c>
       <c r="B143" t="s" s="0">
         <v>81</v>
@@ -2768,7 +2891,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n" s="0">
-        <v>166030.0</v>
+        <v>246293.0</v>
       </c>
       <c r="B144" t="s" s="0">
         <v>61</v>
@@ -2779,10 +2902,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n" s="0">
-        <v>166031.0</v>
+        <v>246294.0</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>4</v>
@@ -2790,10 +2913,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n" s="0">
-        <v>166032.0</v>
+        <v>246295.0</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>4</v>
@@ -2801,10 +2924,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="0">
-        <v>166033.0</v>
+        <v>246296.0</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>4</v>
@@ -2812,10 +2935,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n" s="0">
-        <v>166034.0</v>
+        <v>246297.0</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>4</v>
@@ -2823,10 +2946,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n" s="0">
-        <v>166035.0</v>
+        <v>246298.0</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>4</v>
@@ -2834,10 +2957,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n" s="0">
-        <v>166036.0</v>
+        <v>246299.0</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>4</v>
@@ -2845,10 +2968,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="0">
-        <v>166037.0</v>
+        <v>246300.0</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>4</v>
@@ -2856,10 +2979,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="0">
-        <v>166038.0</v>
+        <v>246301.0</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>4</v>
@@ -2867,10 +2990,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n" s="0">
-        <v>166039.0</v>
+        <v>246302.0</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>4</v>
@@ -2878,10 +3001,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n" s="0">
-        <v>166040.0</v>
+        <v>246303.0</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>4</v>
@@ -2889,10 +3012,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n" s="0">
-        <v>166041.0</v>
+        <v>246304.0</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>4</v>
@@ -2900,10 +3023,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n" s="0">
-        <v>166042.0</v>
+        <v>246305.0</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>4</v>
@@ -2911,10 +3034,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n" s="0">
-        <v>166043.0</v>
+        <v>246306.0</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>4</v>
@@ -2922,10 +3045,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n" s="0">
-        <v>166044.0</v>
+        <v>246307.0</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>4</v>
@@ -2933,10 +3056,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n" s="0">
-        <v>166045.0</v>
+        <v>246308.0</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>4</v>
@@ -2944,10 +3067,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n" s="0">
-        <v>166046.0</v>
+        <v>246309.0</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>4</v>
@@ -2955,10 +3078,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n" s="0">
-        <v>166047.0</v>
+        <v>246310.0</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>4</v>
@@ -2966,10 +3089,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n" s="0">
-        <v>166048.0</v>
+        <v>246311.0</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>4</v>
@@ -2977,10 +3100,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n" s="0">
-        <v>166049.0</v>
+        <v>246312.0</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>4</v>
@@ -2988,10 +3111,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n" s="0">
-        <v>166050.0</v>
+        <v>246313.0</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>4</v>
@@ -2999,10 +3122,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n" s="0">
-        <v>166051.0</v>
+        <v>246314.0</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>4</v>
@@ -3010,10 +3133,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="0">
-        <v>166052.0</v>
+        <v>246315.0</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>4</v>
@@ -3021,10 +3144,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="0">
-        <v>166053.0</v>
+        <v>246316.0</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>4</v>
@@ -3032,10 +3155,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="0">
-        <v>166054.0</v>
+        <v>246317.0</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>4</v>
@@ -3043,10 +3166,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n" s="0">
-        <v>166055.0</v>
+        <v>246318.0</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>4</v>
@@ -3054,10 +3177,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n" s="0">
-        <v>166056.0</v>
+        <v>246319.0</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>4</v>
@@ -3065,10 +3188,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n" s="0">
-        <v>166057.0</v>
+        <v>246320.0</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>4</v>
@@ -3076,10 +3199,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n" s="0">
-        <v>166058.0</v>
+        <v>246321.0</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>4</v>
@@ -3087,7 +3210,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n" s="0">
-        <v>166059.0</v>
+        <v>246322.0</v>
       </c>
       <c r="B173" t="s" s="0">
         <v>144</v>
@@ -3098,10 +3221,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n" s="0">
-        <v>166060.0</v>
+        <v>246323.0</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>4</v>
@@ -3109,10 +3232,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n" s="0">
-        <v>166061.0</v>
+        <v>246324.0</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>4</v>
@@ -3120,10 +3243,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n" s="0">
-        <v>166062.0</v>
+        <v>246325.0</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>4</v>
@@ -3131,10 +3254,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n" s="0">
-        <v>166063.0</v>
+        <v>246326.0</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>4</v>
@@ -3142,10 +3265,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n" s="0">
-        <v>166064.0</v>
+        <v>246327.0</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>4</v>
@@ -3153,10 +3276,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n" s="0">
-        <v>166065.0</v>
+        <v>246328.0</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>4</v>
@@ -3164,10 +3287,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n" s="0">
-        <v>166066.0</v>
+        <v>246329.0</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>4</v>
@@ -3175,10 +3298,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n" s="0">
-        <v>166067.0</v>
+        <v>246330.0</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>4</v>
@@ -3186,10 +3309,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n" s="0">
-        <v>166068.0</v>
+        <v>246331.0</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>4</v>
@@ -3197,10 +3320,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n" s="0">
-        <v>166069.0</v>
+        <v>246332.0</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>4</v>
@@ -3208,10 +3331,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n" s="0">
-        <v>166070.0</v>
+        <v>246333.0</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>4</v>
@@ -3219,10 +3342,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n" s="0">
-        <v>166071.0</v>
+        <v>246334.0</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>4</v>
@@ -3230,10 +3353,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n" s="0">
-        <v>166072.0</v>
+        <v>246335.0</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>4</v>
@@ -3241,10 +3364,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n" s="0">
-        <v>166073.0</v>
+        <v>246336.0</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>4</v>
@@ -3252,10 +3375,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n" s="0">
-        <v>166074.0</v>
+        <v>246337.0</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>4</v>
@@ -3263,10 +3386,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n" s="0">
-        <v>166075.0</v>
+        <v>246338.0</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>4</v>
@@ -3274,10 +3397,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n" s="0">
-        <v>166076.0</v>
+        <v>246339.0</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>4</v>
@@ -3285,10 +3408,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n" s="0">
-        <v>166077.0</v>
+        <v>246340.0</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>4</v>
@@ -3296,10 +3419,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n" s="0">
-        <v>166078.0</v>
+        <v>246341.0</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>4</v>
@@ -3307,10 +3430,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n" s="0">
-        <v>166079.0</v>
+        <v>246342.0</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>4</v>
@@ -3318,10 +3441,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n" s="0">
-        <v>166080.0</v>
+        <v>246343.0</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>4</v>
@@ -3329,10 +3452,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n" s="0">
-        <v>166081.0</v>
+        <v>246344.0</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>4</v>
@@ -3340,10 +3463,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n" s="0">
-        <v>166082.0</v>
+        <v>246345.0</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>4</v>
@@ -3351,10 +3474,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n" s="0">
-        <v>166083.0</v>
+        <v>246346.0</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>4</v>
@@ -3362,10 +3485,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n" s="0">
-        <v>166084.0</v>
+        <v>246347.0</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>4</v>
@@ -3373,10 +3496,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n" s="0">
-        <v>166085.0</v>
+        <v>246348.0</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>4</v>
@@ -3384,10 +3507,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n" s="0">
-        <v>166086.0</v>
+        <v>246349.0</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>4</v>
@@ -3395,10 +3518,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n" s="0">
-        <v>166087.0</v>
+        <v>246350.0</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>4</v>
@@ -3406,10 +3529,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n" s="0">
-        <v>166088.0</v>
+        <v>246351.0</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>4</v>
@@ -3417,10 +3540,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n" s="0">
-        <v>166089.0</v>
+        <v>246352.0</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>4</v>
@@ -3428,10 +3551,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n" s="0">
-        <v>166090.0</v>
+        <v>246353.0</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>4</v>
@@ -3439,10 +3562,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n" s="0">
-        <v>166091.0</v>
+        <v>246354.0</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>4</v>
@@ -3450,10 +3573,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n" s="0">
-        <v>166092.0</v>
+        <v>246355.0</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>4</v>
@@ -3461,10 +3584,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n" s="0">
-        <v>166093.0</v>
+        <v>246356.0</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>4</v>
@@ -3472,10 +3595,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="0">
-        <v>166094.0</v>
+        <v>246357.0</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>4</v>
@@ -3483,10 +3606,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="0">
-        <v>166095.0</v>
+        <v>246358.0</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>4</v>
@@ -3494,10 +3617,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n" s="0">
-        <v>166096.0</v>
+        <v>246359.0</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>4</v>
@@ -3505,10 +3628,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n" s="0">
-        <v>166097.0</v>
+        <v>246360.0</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>4</v>
@@ -3516,10 +3639,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n" s="0">
-        <v>166098.0</v>
+        <v>246361.0</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>4</v>
@@ -3527,10 +3650,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n" s="0">
-        <v>166099.0</v>
+        <v>246362.0</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>4</v>
@@ -3538,10 +3661,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n" s="0">
-        <v>166100.0</v>
+        <v>246363.0</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>4</v>
@@ -3549,7 +3672,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n" s="0">
-        <v>166101.0</v>
+        <v>246364.0</v>
       </c>
       <c r="B215" t="s" s="0">
         <v>81</v>
@@ -3560,7 +3683,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n" s="0">
-        <v>166102.0</v>
+        <v>246365.0</v>
       </c>
       <c r="B216" t="s" s="0">
         <v>61</v>
@@ -3571,10 +3694,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n" s="0">
-        <v>166103.0</v>
+        <v>246366.0</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>4</v>
@@ -3582,10 +3705,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n" s="0">
-        <v>166104.0</v>
+        <v>246367.0</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>4</v>
@@ -3593,10 +3716,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n" s="0">
-        <v>166105.0</v>
+        <v>246368.0</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>4</v>
@@ -3604,10 +3727,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n" s="0">
-        <v>166106.0</v>
+        <v>246369.0</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>4</v>
@@ -3615,10 +3738,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n" s="0">
-        <v>166107.0</v>
+        <v>246370.0</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>4</v>
@@ -3626,10 +3749,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n" s="0">
-        <v>166108.0</v>
+        <v>246371.0</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>4</v>
@@ -3637,10 +3760,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n" s="0">
-        <v>166109.0</v>
+        <v>246372.0</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>4</v>
@@ -3648,10 +3771,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n" s="0">
-        <v>166110.0</v>
+        <v>246373.0</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>4</v>
@@ -3659,10 +3782,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n" s="0">
-        <v>166111.0</v>
+        <v>246374.0</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>4</v>
@@ -3670,10 +3793,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n" s="0">
-        <v>166112.0</v>
+        <v>246375.0</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>4</v>
@@ -3681,10 +3804,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n" s="0">
-        <v>166113.0</v>
+        <v>246376.0</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>4</v>
@@ -3692,7 +3815,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n" s="0">
-        <v>166114.0</v>
+        <v>246377.0</v>
       </c>
       <c r="B228" t="s" s="0">
         <v>61</v>
@@ -3703,10 +3826,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n" s="0">
-        <v>166115.0</v>
+        <v>246378.0</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>4</v>
@@ -3714,10 +3837,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n" s="0">
-        <v>166116.0</v>
+        <v>246379.0</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>4</v>
@@ -3725,10 +3848,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n" s="0">
-        <v>166117.0</v>
+        <v>246380.0</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>4</v>
@@ -3736,10 +3859,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n" s="0">
-        <v>166118.0</v>
+        <v>246381.0</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>4</v>
@@ -3747,10 +3870,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n" s="0">
-        <v>166119.0</v>
+        <v>246382.0</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>4</v>
@@ -3758,10 +3881,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n" s="0">
-        <v>166120.0</v>
+        <v>246383.0</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>4</v>
@@ -3769,10 +3892,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n" s="0">
-        <v>166121.0</v>
+        <v>246384.0</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>4</v>
@@ -3780,7 +3903,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n" s="0">
-        <v>166122.0</v>
+        <v>246385.0</v>
       </c>
       <c r="B236" t="s" s="0">
         <v>61</v>
@@ -3791,10 +3914,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n" s="0">
-        <v>166123.0</v>
+        <v>246386.0</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>4</v>
@@ -3802,10 +3925,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n" s="0">
-        <v>166124.0</v>
+        <v>246387.0</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>4</v>
@@ -3813,10 +3936,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n" s="0">
-        <v>166125.0</v>
+        <v>246388.0</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>4</v>
@@ -3824,10 +3947,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n" s="0">
-        <v>166126.0</v>
+        <v>246389.0</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>4</v>
@@ -3835,10 +3958,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n" s="0">
-        <v>166127.0</v>
+        <v>246390.0</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>4</v>
@@ -3846,10 +3969,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n" s="0">
-        <v>166128.0</v>
+        <v>246391.0</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>4</v>
@@ -3857,10 +3980,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n" s="0">
-        <v>166129.0</v>
+        <v>246392.0</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>4</v>
@@ -3868,10 +3991,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n" s="0">
-        <v>166130.0</v>
+        <v>246393.0</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>4</v>
@@ -3879,10 +4002,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n" s="0">
-        <v>166131.0</v>
+        <v>246394.0</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>4</v>
@@ -3890,10 +4013,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n" s="0">
-        <v>166132.0</v>
+        <v>246395.0</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>4</v>
@@ -3901,10 +4024,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n" s="0">
-        <v>166133.0</v>
+        <v>246396.0</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>4</v>
@@ -3912,10 +4035,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n" s="0">
-        <v>166134.0</v>
+        <v>246397.0</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>4</v>
@@ -3923,7 +4046,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n" s="0">
-        <v>166135.0</v>
+        <v>246398.0</v>
       </c>
       <c r="B249" t="s" s="0">
         <v>61</v>
@@ -3934,10 +4057,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n" s="0">
-        <v>166136.0</v>
+        <v>246399.0</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>4</v>
@@ -3945,10 +4068,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n" s="0">
-        <v>166137.0</v>
+        <v>246400.0</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>4</v>
@@ -3956,10 +4079,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n" s="0">
-        <v>166138.0</v>
+        <v>246401.0</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>4</v>
@@ -3967,10 +4090,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n" s="0">
-        <v>166139.0</v>
+        <v>246402.0</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>4</v>
@@ -3978,10 +4101,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n" s="0">
-        <v>166140.0</v>
+        <v>246403.0</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>4</v>
@@ -3989,10 +4112,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n" s="0">
-        <v>166141.0</v>
+        <v>246404.0</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>4</v>
@@ -4000,10 +4123,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n" s="0">
-        <v>166142.0</v>
+        <v>246405.0</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>4</v>
@@ -4011,10 +4134,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n" s="0">
-        <v>166143.0</v>
+        <v>246406.0</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>4</v>
@@ -4022,10 +4145,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n" s="0">
-        <v>166144.0</v>
+        <v>246407.0</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>4</v>
@@ -4033,10 +4156,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n" s="0">
-        <v>166145.0</v>
+        <v>246408.0</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>4</v>
@@ -4044,10 +4167,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n" s="0">
-        <v>166146.0</v>
+        <v>246409.0</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>4</v>
@@ -4055,10 +4178,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n" s="0">
-        <v>166147.0</v>
+        <v>246410.0</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>4</v>
@@ -4066,10 +4189,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n" s="0">
-        <v>166148.0</v>
+        <v>246411.0</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>4</v>
@@ -4077,10 +4200,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n" s="0">
-        <v>166149.0</v>
+        <v>246412.0</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>4</v>
@@ -4088,10 +4211,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n" s="0">
-        <v>166150.0</v>
+        <v>246413.0</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>4</v>
@@ -4099,10 +4222,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="0">
-        <v>166151.0</v>
+        <v>246414.0</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>4</v>
@@ -4110,10 +4233,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n" s="0">
-        <v>166152.0</v>
+        <v>246415.0</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>4</v>
@@ -4121,10 +4244,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n" s="0">
-        <v>166153.0</v>
+        <v>246416.0</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>4</v>
@@ -4132,10 +4255,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n" s="0">
-        <v>166154.0</v>
+        <v>246417.0</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>4</v>
@@ -4143,10 +4266,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n" s="0">
-        <v>166155.0</v>
+        <v>246418.0</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>4</v>
@@ -4154,10 +4277,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n" s="0">
-        <v>166156.0</v>
+        <v>246419.0</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>4</v>
@@ -4165,7 +4288,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n" s="0">
-        <v>166157.0</v>
+        <v>246420.0</v>
       </c>
       <c r="B271" t="s" s="0">
         <v>61</v>
@@ -4176,10 +4299,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n" s="0">
-        <v>166158.0</v>
+        <v>246421.0</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>4</v>
@@ -4187,10 +4310,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n" s="0">
-        <v>166159.0</v>
+        <v>246422.0</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>4</v>
@@ -4198,10 +4321,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n" s="0">
-        <v>166160.0</v>
+        <v>246423.0</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>4</v>
@@ -4209,7 +4332,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n" s="0">
-        <v>166161.0</v>
+        <v>246424.0</v>
       </c>
       <c r="B275" t="s" s="0">
         <v>61</v>
@@ -4220,10 +4343,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n" s="0">
-        <v>166162.0</v>
+        <v>246425.0</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>4</v>
@@ -4231,21 +4354,21 @@
     </row>
     <row r="277">
       <c r="A277" t="n" s="0">
-        <v>166163.0</v>
+        <v>246426.0</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n" s="0">
-        <v>166164.0</v>
+        <v>246427.0</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>4</v>
@@ -4253,21 +4376,21 @@
     </row>
     <row r="279">
       <c r="A279" t="n" s="0">
-        <v>166165.0</v>
+        <v>246428.0</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n" s="0">
-        <v>166166.0</v>
+        <v>246429.0</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>4</v>
@@ -4275,10 +4398,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n" s="0">
-        <v>166167.0</v>
+        <v>246430.0</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>4</v>
@@ -4286,10 +4409,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n" s="0">
-        <v>166168.0</v>
+        <v>246431.0</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>4</v>
@@ -4297,10 +4420,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n" s="0">
-        <v>166169.0</v>
+        <v>246432.0</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>4</v>
@@ -4308,10 +4431,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n" s="0">
-        <v>166170.0</v>
+        <v>246433.0</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>4</v>
@@ -4319,10 +4442,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n" s="0">
-        <v>166171.0</v>
+        <v>246434.0</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>4</v>
@@ -4330,10 +4453,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n" s="0">
-        <v>166172.0</v>
+        <v>246435.0</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>4</v>
@@ -4341,10 +4464,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n" s="0">
-        <v>166173.0</v>
+        <v>246436.0</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>4</v>
@@ -4352,10 +4475,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n" s="0">
-        <v>166174.0</v>
+        <v>246437.0</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>4</v>
@@ -4363,10 +4486,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n" s="0">
-        <v>166175.0</v>
+        <v>246438.0</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>4</v>
@@ -4374,10 +4497,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n" s="0">
-        <v>166176.0</v>
+        <v>246439.0</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>4</v>
@@ -4385,10 +4508,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n" s="0">
-        <v>166177.0</v>
+        <v>246440.0</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>4</v>
@@ -4396,10 +4519,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n" s="0">
-        <v>166178.0</v>
+        <v>246441.0</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>4</v>
@@ -4407,10 +4530,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n" s="0">
-        <v>166179.0</v>
+        <v>246442.0</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>4</v>
@@ -4418,10 +4541,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n" s="0">
-        <v>166180.0</v>
+        <v>246443.0</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>4</v>
@@ -4429,10 +4552,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n" s="0">
-        <v>166181.0</v>
+        <v>246444.0</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>4</v>
@@ -4440,10 +4563,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n" s="0">
-        <v>166182.0</v>
+        <v>246445.0</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>4</v>
@@ -4451,10 +4574,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n" s="0">
-        <v>166183.0</v>
+        <v>246446.0</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>4</v>
@@ -4462,10 +4585,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n" s="0">
-        <v>166184.0</v>
+        <v>246447.0</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>4</v>
@@ -4473,7 +4596,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n" s="0">
-        <v>166185.0</v>
+        <v>246448.0</v>
       </c>
       <c r="B299" t="s" s="0">
         <v>75</v>
@@ -4484,10 +4607,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n" s="0">
-        <v>166186.0</v>
+        <v>246449.0</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>4</v>
@@ -4495,10 +4618,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n" s="0">
-        <v>166187.0</v>
+        <v>246450.0</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>4</v>
@@ -4506,10 +4629,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="0">
-        <v>166188.0</v>
+        <v>246451.0</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>4</v>
@@ -4517,10 +4640,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n" s="0">
-        <v>166189.0</v>
+        <v>246452.0</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>4</v>
@@ -4528,10 +4651,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n" s="0">
-        <v>166190.0</v>
+        <v>246453.0</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>4</v>
@@ -4539,10 +4662,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n" s="0">
-        <v>166191.0</v>
+        <v>246454.0</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>4</v>
@@ -4550,10 +4673,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n" s="0">
-        <v>166192.0</v>
+        <v>246455.0</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>4</v>
@@ -4561,10 +4684,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n" s="0">
-        <v>166193.0</v>
+        <v>246456.0</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>4</v>
@@ -4572,10 +4695,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n" s="0">
-        <v>166194.0</v>
+        <v>246457.0</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>4</v>
@@ -4583,10 +4706,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n" s="0">
-        <v>166195.0</v>
+        <v>246458.0</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>4</v>
@@ -4594,10 +4717,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n" s="0">
-        <v>166196.0</v>
+        <v>246459.0</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>4</v>
@@ -4605,10 +4728,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n" s="0">
-        <v>166197.0</v>
+        <v>246460.0</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>4</v>
@@ -4616,10 +4739,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n" s="0">
-        <v>166198.0</v>
+        <v>246461.0</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>4</v>
@@ -4627,10 +4750,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n" s="0">
-        <v>166199.0</v>
+        <v>246462.0</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>4</v>
@@ -4638,10 +4761,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n" s="0">
-        <v>166200.0</v>
+        <v>246463.0</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>4</v>
@@ -4649,10 +4772,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n" s="0">
-        <v>166201.0</v>
+        <v>246464.0</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>4</v>
@@ -4660,10 +4783,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n" s="0">
-        <v>166202.0</v>
+        <v>246465.0</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>4</v>
@@ -4671,10 +4794,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n" s="0">
-        <v>166203.0</v>
+        <v>246466.0</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>4</v>
@@ -4682,10 +4805,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n" s="0">
-        <v>166204.0</v>
+        <v>246467.0</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>4</v>
@@ -4693,10 +4816,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n" s="0">
-        <v>166205.0</v>
+        <v>246468.0</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>4</v>
@@ -4704,10 +4827,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n" s="0">
-        <v>166206.0</v>
+        <v>246469.0</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>4</v>
@@ -4715,10 +4838,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n" s="0">
-        <v>166207.0</v>
+        <v>246470.0</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>4</v>
@@ -4726,10 +4849,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n" s="0">
-        <v>166208.0</v>
+        <v>246471.0</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>4</v>
@@ -4737,10 +4860,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n" s="0">
-        <v>166209.0</v>
+        <v>246472.0</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>4</v>
@@ -4748,10 +4871,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n" s="0">
-        <v>166210.0</v>
+        <v>246473.0</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>4</v>
@@ -4759,10 +4882,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n" s="0">
-        <v>166211.0</v>
+        <v>246474.0</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>4</v>
@@ -4770,10 +4893,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n" s="0">
-        <v>166212.0</v>
+        <v>246475.0</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>4</v>
@@ -4781,10 +4904,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n" s="0">
-        <v>166213.0</v>
+        <v>246476.0</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>4</v>
@@ -4792,10 +4915,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n" s="0">
-        <v>166214.0</v>
+        <v>246477.0</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>4</v>
@@ -4803,10 +4926,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n" s="0">
-        <v>166215.0</v>
+        <v>246478.0</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>4</v>
@@ -4814,10 +4937,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n" s="0">
-        <v>166216.0</v>
+        <v>246479.0</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>4</v>
@@ -4825,10 +4948,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n" s="0">
-        <v>166217.0</v>
+        <v>246480.0</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>4</v>
@@ -4836,10 +4959,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n" s="0">
-        <v>166218.0</v>
+        <v>246481.0</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>4</v>
@@ -4847,10 +4970,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n" s="0">
-        <v>166219.0</v>
+        <v>246482.0</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>4</v>
@@ -4858,10 +4981,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n" s="0">
-        <v>166220.0</v>
+        <v>246483.0</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>4</v>
@@ -4869,10 +4992,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n" s="0">
-        <v>166221.0</v>
+        <v>246484.0</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>4</v>
@@ -4880,10 +5003,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n" s="0">
-        <v>166222.0</v>
+        <v>246485.0</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>4</v>
@@ -4891,10 +5014,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n" s="0">
-        <v>166223.0</v>
+        <v>246486.0</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>4</v>
@@ -4902,10 +5025,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n" s="0">
-        <v>166224.0</v>
+        <v>246487.0</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>4</v>
@@ -4913,10 +5036,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n" s="0">
-        <v>166225.0</v>
+        <v>246488.0</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>4</v>
@@ -4924,10 +5047,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n" s="0">
-        <v>166226.0</v>
+        <v>246489.0</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>4</v>
@@ -4935,10 +5058,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n" s="0">
-        <v>166227.0</v>
+        <v>246490.0</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>4</v>
@@ -4946,10 +5069,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n" s="0">
-        <v>166228.0</v>
+        <v>246491.0</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>4</v>
@@ -4957,10 +5080,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n" s="0">
-        <v>166229.0</v>
+        <v>246492.0</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>4</v>
@@ -4968,10 +5091,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n" s="0">
-        <v>166230.0</v>
+        <v>246493.0</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>4</v>
@@ -4979,10 +5102,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n" s="0">
-        <v>166231.0</v>
+        <v>246494.0</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>4</v>
@@ -4990,10 +5113,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n" s="0">
-        <v>166232.0</v>
+        <v>246495.0</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>4</v>
@@ -5001,10 +5124,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n" s="0">
-        <v>166233.0</v>
+        <v>246496.0</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>4</v>
@@ -5012,10 +5135,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n" s="0">
-        <v>166234.0</v>
+        <v>246497.0</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>4</v>
@@ -5023,10 +5146,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n" s="0">
-        <v>166235.0</v>
+        <v>246498.0</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>4</v>
@@ -5034,10 +5157,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n" s="0">
-        <v>166236.0</v>
+        <v>246499.0</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>4</v>
@@ -5045,10 +5168,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n" s="0">
-        <v>166237.0</v>
+        <v>246500.0</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>4</v>
@@ -5056,10 +5179,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n" s="0">
-        <v>166238.0</v>
+        <v>246501.0</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>4</v>
@@ -5067,10 +5190,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n" s="0">
-        <v>166239.0</v>
+        <v>246502.0</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="C353" t="s" s="0">
         <v>4</v>
@@ -5078,10 +5201,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n" s="0">
-        <v>166240.0</v>
+        <v>246503.0</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>4</v>
@@ -5089,10 +5212,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n" s="0">
-        <v>166241.0</v>
+        <v>246504.0</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>4</v>
@@ -5100,10 +5223,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n" s="0">
-        <v>166242.0</v>
+        <v>246505.0</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C356" t="s" s="0">
         <v>4</v>
@@ -5111,10 +5234,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n" s="0">
-        <v>166243.0</v>
+        <v>246506.0</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C357" t="s" s="0">
         <v>4</v>
@@ -5122,10 +5245,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n" s="0">
-        <v>166244.0</v>
+        <v>246507.0</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C358" t="s" s="0">
         <v>4</v>
@@ -5133,10 +5256,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n" s="0">
-        <v>166245.0</v>
+        <v>246508.0</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="C359" t="s" s="0">
         <v>4</v>
@@ -5144,10 +5267,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n" s="0">
-        <v>166246.0</v>
+        <v>246509.0</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>4</v>
@@ -5155,10 +5278,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n" s="0">
-        <v>166247.0</v>
+        <v>246510.0</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>4</v>
@@ -5166,10 +5289,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n" s="0">
-        <v>166248.0</v>
+        <v>246511.0</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>4</v>
@@ -5177,10 +5300,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n" s="0">
-        <v>166249.0</v>
+        <v>246512.0</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>4</v>
@@ -5188,10 +5311,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n" s="0">
-        <v>166250.0</v>
+        <v>246513.0</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>4</v>
@@ -5199,21 +5322,21 @@
     </row>
     <row r="365">
       <c r="A365" t="n" s="0">
-        <v>166251.0</v>
+        <v>246514.0</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n" s="0">
-        <v>166252.0</v>
+        <v>246515.0</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C366" t="s" s="0">
         <v>4</v>
@@ -5221,21 +5344,21 @@
     </row>
     <row r="367">
       <c r="A367" t="n" s="0">
-        <v>166253.0</v>
+        <v>246516.0</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n" s="0">
-        <v>166254.0</v>
+        <v>246517.0</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>4</v>
@@ -5243,10 +5366,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n" s="0">
-        <v>166255.0</v>
+        <v>246518.0</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>4</v>
@@ -5254,10 +5377,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n" s="0">
-        <v>166256.0</v>
+        <v>246519.0</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>4</v>
@@ -5265,10 +5388,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n" s="0">
-        <v>166257.0</v>
+        <v>246520.0</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C371" t="s" s="0">
         <v>4</v>
@@ -5276,10 +5399,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n" s="0">
-        <v>166258.0</v>
+        <v>246521.0</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>4</v>
@@ -5287,10 +5410,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n" s="0">
-        <v>166259.0</v>
+        <v>246522.0</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>4</v>
@@ -5298,10 +5421,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n" s="0">
-        <v>166260.0</v>
+        <v>246523.0</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="C374" t="s" s="0">
         <v>4</v>
@@ -5309,10 +5432,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n" s="0">
-        <v>166261.0</v>
+        <v>246524.0</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>4</v>
@@ -5320,10 +5443,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n" s="0">
-        <v>166262.0</v>
+        <v>246525.0</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>4</v>
@@ -5331,10 +5454,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n" s="0">
-        <v>166263.0</v>
+        <v>246526.0</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>4</v>
@@ -5342,10 +5465,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n" s="0">
-        <v>166264.0</v>
+        <v>246527.0</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>4</v>
@@ -5353,10 +5476,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n" s="0">
-        <v>166265.0</v>
+        <v>246528.0</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>4</v>
@@ -5364,10 +5487,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n" s="0">
-        <v>166266.0</v>
+        <v>246529.0</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>4</v>
@@ -5375,10 +5498,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n" s="0">
-        <v>166267.0</v>
+        <v>246530.0</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>4</v>
@@ -5386,10 +5509,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n" s="0">
-        <v>166268.0</v>
+        <v>246531.0</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>4</v>
@@ -5397,10 +5520,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n" s="0">
-        <v>166269.0</v>
+        <v>246532.0</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>4</v>
@@ -5408,10 +5531,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n" s="0">
-        <v>166270.0</v>
+        <v>246533.0</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>4</v>
@@ -5419,10 +5542,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n" s="0">
-        <v>166271.0</v>
+        <v>246534.0</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>4</v>
@@ -5430,10 +5553,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n" s="0">
-        <v>166272.0</v>
+        <v>246535.0</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>4</v>
@@ -5441,10 +5564,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n" s="0">
-        <v>166273.0</v>
+        <v>246536.0</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>4</v>
@@ -5452,10 +5575,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n" s="0">
-        <v>166274.0</v>
+        <v>246537.0</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>4</v>
@@ -5463,10 +5586,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n" s="0">
-        <v>166275.0</v>
+        <v>246538.0</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>4</v>
@@ -5474,10 +5597,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n" s="0">
-        <v>166276.0</v>
+        <v>246539.0</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>4</v>
@@ -5485,10 +5608,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n" s="0">
-        <v>166277.0</v>
+        <v>246540.0</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>4</v>
@@ -5496,10 +5619,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n" s="0">
-        <v>166278.0</v>
+        <v>246541.0</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>4</v>
@@ -5507,10 +5630,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n" s="0">
-        <v>166279.0</v>
+        <v>246542.0</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>4</v>
@@ -5518,10 +5641,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n" s="0">
-        <v>166280.0</v>
+        <v>246543.0</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>4</v>
@@ -5529,10 +5652,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n" s="0">
-        <v>166281.0</v>
+        <v>246544.0</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>4</v>
@@ -5540,10 +5663,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n" s="0">
-        <v>166282.0</v>
+        <v>246545.0</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>4</v>
@@ -5551,10 +5674,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n" s="0">
-        <v>166283.0</v>
+        <v>246546.0</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>4</v>
@@ -5562,10 +5685,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n" s="0">
-        <v>166284.0</v>
+        <v>246547.0</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>4</v>
@@ -5573,10 +5696,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n" s="0">
-        <v>166285.0</v>
+        <v>246548.0</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>4</v>
@@ -5584,10 +5707,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n" s="0">
-        <v>166286.0</v>
+        <v>246549.0</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>4</v>
@@ -5595,10 +5718,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n" s="0">
-        <v>166287.0</v>
+        <v>246550.0</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>4</v>
@@ -5606,10 +5729,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n" s="0">
-        <v>166288.0</v>
+        <v>246551.0</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>4</v>
@@ -5617,10 +5740,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n" s="0">
-        <v>166289.0</v>
+        <v>246552.0</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>4</v>
@@ -5628,10 +5751,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n" s="0">
-        <v>166290.0</v>
+        <v>246553.0</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>4</v>
@@ -5639,10 +5762,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n" s="0">
-        <v>166291.0</v>
+        <v>246554.0</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>4</v>
@@ -5650,10 +5773,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n" s="0">
-        <v>166292.0</v>
+        <v>246555.0</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>4</v>
@@ -5661,10 +5784,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n" s="0">
-        <v>166293.0</v>
+        <v>246556.0</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C407" t="s" s="0">
         <v>4</v>
@@ -5672,10 +5795,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n" s="0">
-        <v>166294.0</v>
+        <v>246557.0</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="C408" t="s" s="0">
         <v>4</v>
@@ -5683,10 +5806,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n" s="0">
-        <v>166295.0</v>
+        <v>246558.0</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="C409" t="s" s="0">
         <v>4</v>
@@ -5694,10 +5817,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n" s="0">
-        <v>166296.0</v>
+        <v>246559.0</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="C410" t="s" s="0">
         <v>4</v>
@@ -5705,10 +5828,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n" s="0">
-        <v>166297.0</v>
+        <v>246560.0</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>4</v>
@@ -5716,10 +5839,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n" s="0">
-        <v>166298.0</v>
+        <v>246561.0</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C412" t="s" s="0">
         <v>4</v>
@@ -5727,10 +5850,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n" s="0">
-        <v>166299.0</v>
+        <v>246562.0</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C413" t="s" s="0">
         <v>4</v>
@@ -5738,10 +5861,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n" s="0">
-        <v>166300.0</v>
+        <v>246563.0</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C414" t="s" s="0">
         <v>4</v>
@@ -5749,10 +5872,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n" s="0">
-        <v>166301.0</v>
+        <v>246564.0</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C415" t="s" s="0">
         <v>4</v>
@@ -5760,10 +5883,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n" s="0">
-        <v>166302.0</v>
+        <v>246565.0</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>4</v>
@@ -5771,10 +5894,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n" s="0">
-        <v>166303.0</v>
+        <v>246566.0</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C417" t="s" s="0">
         <v>4</v>
@@ -5782,10 +5905,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n" s="0">
-        <v>166304.0</v>
+        <v>246567.0</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C418" t="s" s="0">
         <v>4</v>
@@ -5793,10 +5916,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n" s="0">
-        <v>166305.0</v>
+        <v>246568.0</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C419" t="s" s="0">
         <v>4</v>
@@ -5804,10 +5927,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n" s="0">
-        <v>166306.0</v>
+        <v>246569.0</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C420" t="s" s="0">
         <v>4</v>
@@ -5815,10 +5938,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n" s="0">
-        <v>166307.0</v>
+        <v>246570.0</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>4</v>
@@ -5826,10 +5949,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n" s="0">
-        <v>166308.0</v>
+        <v>246571.0</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C422" t="s" s="0">
         <v>4</v>
@@ -5837,10 +5960,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n" s="0">
-        <v>166309.0</v>
+        <v>246572.0</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C423" t="s" s="0">
         <v>4</v>
@@ -5848,10 +5971,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n" s="0">
-        <v>166310.0</v>
+        <v>246573.0</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C424" t="s" s="0">
         <v>4</v>
@@ -5859,10 +5982,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n" s="0">
-        <v>166311.0</v>
+        <v>246574.0</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C425" t="s" s="0">
         <v>4</v>
@@ -5870,10 +5993,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n" s="0">
-        <v>166312.0</v>
+        <v>246575.0</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C426" t="s" s="0">
         <v>4</v>
@@ -5881,10 +6004,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n" s="0">
-        <v>166313.0</v>
+        <v>246576.0</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C427" t="s" s="0">
         <v>4</v>
@@ -5892,10 +6015,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n" s="0">
-        <v>166314.0</v>
+        <v>246577.0</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C428" t="s" s="0">
         <v>4</v>
@@ -5903,10 +6026,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n" s="0">
-        <v>166315.0</v>
+        <v>246578.0</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C429" t="s" s="0">
         <v>4</v>
@@ -5914,10 +6037,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n" s="0">
-        <v>166316.0</v>
+        <v>246579.0</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C430" t="s" s="0">
         <v>4</v>
@@ -5925,10 +6048,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n" s="0">
-        <v>166317.0</v>
+        <v>246580.0</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C431" t="s" s="0">
         <v>4</v>
@@ -5936,10 +6059,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n" s="0">
-        <v>166318.0</v>
+        <v>246581.0</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>4</v>
@@ -5947,10 +6070,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n" s="0">
-        <v>166319.0</v>
+        <v>246582.0</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C433" t="s" s="0">
         <v>4</v>
@@ -5958,10 +6081,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n" s="0">
-        <v>166320.0</v>
+        <v>246583.0</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C434" t="s" s="0">
         <v>4</v>
@@ -5969,10 +6092,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n" s="0">
-        <v>166321.0</v>
+        <v>246584.0</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C435" t="s" s="0">
         <v>4</v>
@@ -5980,10 +6103,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n" s="0">
-        <v>166322.0</v>
+        <v>246585.0</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C436" t="s" s="0">
         <v>4</v>
@@ -5991,10 +6114,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n" s="0">
-        <v>166323.0</v>
+        <v>246586.0</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C437" t="s" s="0">
         <v>4</v>
@@ -6002,10 +6125,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n" s="0">
-        <v>166324.0</v>
+        <v>246587.0</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C438" t="s" s="0">
         <v>4</v>
@@ -6013,10 +6136,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n" s="0">
-        <v>166325.0</v>
+        <v>246588.0</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C439" t="s" s="0">
         <v>4</v>
@@ -6024,10 +6147,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n" s="0">
-        <v>166326.0</v>
+        <v>246589.0</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C440" t="s" s="0">
         <v>4</v>
@@ -6035,10 +6158,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n" s="0">
-        <v>166327.0</v>
+        <v>246590.0</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C441" t="s" s="0">
         <v>4</v>
@@ -6046,10 +6169,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n" s="0">
-        <v>166328.0</v>
+        <v>246591.0</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C442" t="s" s="0">
         <v>4</v>
@@ -6057,10 +6180,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n" s="0">
-        <v>166329.0</v>
+        <v>246592.0</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C443" t="s" s="0">
         <v>4</v>
@@ -6068,10 +6191,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n" s="0">
-        <v>166330.0</v>
+        <v>246593.0</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C444" t="s" s="0">
         <v>4</v>
@@ -6079,10 +6202,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n" s="0">
-        <v>166331.0</v>
+        <v>246594.0</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C445" t="s" s="0">
         <v>4</v>
@@ -6090,10 +6213,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n" s="0">
-        <v>166332.0</v>
+        <v>246595.0</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C446" t="s" s="0">
         <v>4</v>
@@ -6101,10 +6224,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n" s="0">
-        <v>166333.0</v>
+        <v>246596.0</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C447" t="s" s="0">
         <v>4</v>
@@ -6112,10 +6235,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n" s="0">
-        <v>166334.0</v>
+        <v>246597.0</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C448" t="s" s="0">
         <v>4</v>
@@ -6123,10 +6246,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n" s="0">
-        <v>166335.0</v>
+        <v>246598.0</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C449" t="s" s="0">
         <v>4</v>
@@ -6134,10 +6257,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n" s="0">
-        <v>166336.0</v>
+        <v>246599.0</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C450" t="s" s="0">
         <v>4</v>
@@ -6145,10 +6268,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n" s="0">
-        <v>166337.0</v>
+        <v>246600.0</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C451" t="s" s="0">
         <v>4</v>
@@ -6156,10 +6279,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n" s="0">
-        <v>166338.0</v>
+        <v>246601.0</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C452" t="s" s="0">
         <v>4</v>
@@ -6167,10 +6290,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n" s="0">
-        <v>166339.0</v>
+        <v>246602.0</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C453" t="s" s="0">
         <v>4</v>
@@ -6178,10 +6301,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n" s="0">
-        <v>166340.0</v>
+        <v>246603.0</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C454" t="s" s="0">
         <v>4</v>
@@ -6189,10 +6312,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n" s="0">
-        <v>166341.0</v>
+        <v>246604.0</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C455" t="s" s="0">
         <v>4</v>
@@ -6200,10 +6323,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n" s="0">
-        <v>166342.0</v>
+        <v>246605.0</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C456" t="s" s="0">
         <v>4</v>
@@ -6211,10 +6334,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n" s="0">
-        <v>166343.0</v>
+        <v>246606.0</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C457" t="s" s="0">
         <v>4</v>
@@ -6222,10 +6345,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n" s="0">
-        <v>166344.0</v>
+        <v>246607.0</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C458" t="s" s="0">
         <v>4</v>
@@ -6233,10 +6356,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n" s="0">
-        <v>166345.0</v>
+        <v>246608.0</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C459" t="s" s="0">
         <v>4</v>
@@ -6244,10 +6367,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n" s="0">
-        <v>166346.0</v>
+        <v>246609.0</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C460" t="s" s="0">
         <v>4</v>
@@ -6255,10 +6378,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n" s="0">
-        <v>166347.0</v>
+        <v>246610.0</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C461" t="s" s="0">
         <v>4</v>
@@ -6266,10 +6389,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n" s="0">
-        <v>166348.0</v>
+        <v>246611.0</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C462" t="s" s="0">
         <v>4</v>
@@ -6277,7 +6400,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n" s="0">
-        <v>166349.0</v>
+        <v>246612.0</v>
       </c>
       <c r="B463" t="s" s="0">
         <v>320</v>
@@ -6288,10 +6411,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n" s="0">
-        <v>166350.0</v>
+        <v>246613.0</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C464" t="s" s="0">
         <v>4</v>
@@ -6299,10 +6422,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n" s="0">
-        <v>166351.0</v>
+        <v>246614.0</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C465" t="s" s="0">
         <v>4</v>
@@ -6310,10 +6433,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n" s="0">
-        <v>166352.0</v>
+        <v>246615.0</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C466" t="s" s="0">
         <v>4</v>
@@ -6321,10 +6444,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n" s="0">
-        <v>166353.0</v>
+        <v>246616.0</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C467" t="s" s="0">
         <v>4</v>
@@ -6332,10 +6455,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n" s="0">
-        <v>166354.0</v>
+        <v>246617.0</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C468" t="s" s="0">
         <v>4</v>
@@ -6343,10 +6466,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n" s="0">
-        <v>166355.0</v>
+        <v>246618.0</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C469" t="s" s="0">
         <v>4</v>
@@ -6354,10 +6477,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n" s="0">
-        <v>166356.0</v>
+        <v>246619.0</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>4</v>
@@ -6365,10 +6488,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n" s="0">
-        <v>166357.0</v>
+        <v>246620.0</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>4</v>
@@ -6376,10 +6499,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n" s="0">
-        <v>166358.0</v>
+        <v>246621.0</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C472" t="s" s="0">
         <v>4</v>
@@ -6387,10 +6510,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n" s="0">
-        <v>166359.0</v>
+        <v>246622.0</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>4</v>
@@ -6398,10 +6521,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n" s="0">
-        <v>166360.0</v>
+        <v>246623.0</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>4</v>
@@ -6409,10 +6532,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n" s="0">
-        <v>166361.0</v>
+        <v>246624.0</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C475" t="s" s="0">
         <v>4</v>
@@ -6420,10 +6543,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n" s="0">
-        <v>166362.0</v>
+        <v>246625.0</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C476" t="s" s="0">
         <v>4</v>
@@ -6431,10 +6554,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n" s="0">
-        <v>166363.0</v>
+        <v>246626.0</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C477" t="s" s="0">
         <v>4</v>
@@ -6442,10 +6565,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n" s="0">
-        <v>166364.0</v>
+        <v>246627.0</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C478" t="s" s="0">
         <v>4</v>
@@ -6453,10 +6576,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n" s="0">
-        <v>166365.0</v>
+        <v>246628.0</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C479" t="s" s="0">
         <v>4</v>
@@ -6464,10 +6587,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n" s="0">
-        <v>166366.0</v>
+        <v>246629.0</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C480" t="s" s="0">
         <v>4</v>
@@ -6475,10 +6598,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n" s="0">
-        <v>166367.0</v>
+        <v>246630.0</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C481" t="s" s="0">
         <v>4</v>
@@ -6486,10 +6609,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n" s="0">
-        <v>166368.0</v>
+        <v>246631.0</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C482" t="s" s="0">
         <v>4</v>
@@ -6497,10 +6620,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n" s="0">
-        <v>166369.0</v>
+        <v>246632.0</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C483" t="s" s="0">
         <v>4</v>
@@ -6508,10 +6631,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n" s="0">
-        <v>166370.0</v>
+        <v>246633.0</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C484" t="s" s="0">
         <v>4</v>
@@ -6519,10 +6642,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n" s="0">
-        <v>166371.0</v>
+        <v>246634.0</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C485" t="s" s="0">
         <v>4</v>
@@ -6530,10 +6653,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n" s="0">
-        <v>166372.0</v>
+        <v>246635.0</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C486" t="s" s="0">
         <v>4</v>
@@ -6541,10 +6664,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n" s="0">
-        <v>166373.0</v>
+        <v>246636.0</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C487" t="s" s="0">
         <v>4</v>
@@ -6552,10 +6675,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n" s="0">
-        <v>166374.0</v>
+        <v>246637.0</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C488" t="s" s="0">
         <v>4</v>
@@ -6563,10 +6686,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n" s="0">
-        <v>166375.0</v>
+        <v>246638.0</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C489" t="s" s="0">
         <v>4</v>
@@ -6574,10 +6697,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n" s="0">
-        <v>166376.0</v>
+        <v>246639.0</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C490" t="s" s="0">
         <v>4</v>
@@ -6585,10 +6708,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n" s="0">
-        <v>166377.0</v>
+        <v>246640.0</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C491" t="s" s="0">
         <v>4</v>
@@ -6596,10 +6719,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n" s="0">
-        <v>166378.0</v>
+        <v>246641.0</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C492" t="s" s="0">
         <v>4</v>
@@ -6607,10 +6730,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n" s="0">
-        <v>166379.0</v>
+        <v>246642.0</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C493" t="s" s="0">
         <v>4</v>
@@ -6618,10 +6741,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n" s="0">
-        <v>166380.0</v>
+        <v>246643.0</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C494" t="s" s="0">
         <v>4</v>
@@ -6629,10 +6752,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n" s="0">
-        <v>166381.0</v>
+        <v>246644.0</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C495" t="s" s="0">
         <v>4</v>
@@ -6640,10 +6763,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n" s="0">
-        <v>166382.0</v>
+        <v>246645.0</v>
       </c>
       <c r="B496" t="s" s="0">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C496" t="s" s="0">
         <v>4</v>
@@ -6651,10 +6774,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n" s="0">
-        <v>166383.0</v>
+        <v>246646.0</v>
       </c>
       <c r="B497" t="s" s="0">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C497" t="s" s="0">
         <v>4</v>
@@ -6662,10 +6785,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n" s="0">
-        <v>166384.0</v>
+        <v>246647.0</v>
       </c>
       <c r="B498" t="s" s="0">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C498" t="s" s="0">
         <v>4</v>
@@ -6673,10 +6796,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n" s="0">
-        <v>166385.0</v>
+        <v>246648.0</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="C499" t="s" s="0">
         <v>4</v>
@@ -6684,10 +6807,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n" s="0">
-        <v>166386.0</v>
+        <v>246649.0</v>
       </c>
       <c r="B500" t="s" s="0">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C500" t="s" s="0">
         <v>4</v>
@@ -6695,10 +6818,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n" s="0">
-        <v>166387.0</v>
+        <v>246650.0</v>
       </c>
       <c r="B501" t="s" s="0">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C501" t="s" s="0">
         <v>4</v>
@@ -6706,10 +6829,10 @@
     </row>
     <row r="502">
       <c r="A502" t="n" s="0">
-        <v>166388.0</v>
+        <v>246651.0</v>
       </c>
       <c r="B502" t="s" s="0">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C502" t="s" s="0">
         <v>4</v>
@@ -6717,10 +6840,10 @@
     </row>
     <row r="503">
       <c r="A503" t="n" s="0">
-        <v>166389.0</v>
+        <v>246652.0</v>
       </c>
       <c r="B503" t="s" s="0">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C503" t="s" s="0">
         <v>4</v>
@@ -6728,10 +6851,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n" s="0">
-        <v>166390.0</v>
+        <v>246653.0</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C504" t="s" s="0">
         <v>4</v>
@@ -6739,10 +6862,10 @@
     </row>
     <row r="505">
       <c r="A505" t="n" s="0">
-        <v>166391.0</v>
+        <v>246654.0</v>
       </c>
       <c r="B505" t="s" s="0">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C505" t="s" s="0">
         <v>4</v>
@@ -6750,10 +6873,10 @@
     </row>
     <row r="506">
       <c r="A506" t="n" s="0">
-        <v>166392.0</v>
+        <v>246655.0</v>
       </c>
       <c r="B506" t="s" s="0">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C506" t="s" s="0">
         <v>4</v>
@@ -6761,10 +6884,10 @@
     </row>
     <row r="507">
       <c r="A507" t="n" s="0">
-        <v>166393.0</v>
+        <v>246656.0</v>
       </c>
       <c r="B507" t="s" s="0">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C507" t="s" s="0">
         <v>4</v>
@@ -6772,10 +6895,10 @@
     </row>
     <row r="508">
       <c r="A508" t="n" s="0">
-        <v>166394.0</v>
+        <v>246657.0</v>
       </c>
       <c r="B508" t="s" s="0">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C508" t="s" s="0">
         <v>4</v>
@@ -6783,10 +6906,10 @@
     </row>
     <row r="509">
       <c r="A509" t="n" s="0">
-        <v>166395.0</v>
+        <v>246658.0</v>
       </c>
       <c r="B509" t="s" s="0">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C509" t="s" s="0">
         <v>4</v>
@@ -6794,10 +6917,10 @@
     </row>
     <row r="510">
       <c r="A510" t="n" s="0">
-        <v>166396.0</v>
+        <v>246659.0</v>
       </c>
       <c r="B510" t="s" s="0">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C510" t="s" s="0">
         <v>4</v>
@@ -6805,10 +6928,10 @@
     </row>
     <row r="511">
       <c r="A511" t="n" s="0">
-        <v>166397.0</v>
+        <v>246660.0</v>
       </c>
       <c r="B511" t="s" s="0">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="C511" t="s" s="0">
         <v>4</v>
@@ -6816,10 +6939,10 @@
     </row>
     <row r="512">
       <c r="A512" t="n" s="0">
-        <v>166398.0</v>
+        <v>246661.0</v>
       </c>
       <c r="B512" t="s" s="0">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C512" t="s" s="0">
         <v>4</v>
@@ -6827,10 +6950,10 @@
     </row>
     <row r="513">
       <c r="A513" t="n" s="0">
-        <v>166399.0</v>
+        <v>246662.0</v>
       </c>
       <c r="B513" t="s" s="0">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="C513" t="s" s="0">
         <v>4</v>
@@ -6838,10 +6961,10 @@
     </row>
     <row r="514">
       <c r="A514" t="n" s="0">
-        <v>166400.0</v>
+        <v>246663.0</v>
       </c>
       <c r="B514" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C514" t="s" s="0">
         <v>4</v>
@@ -6849,10 +6972,10 @@
     </row>
     <row r="515">
       <c r="A515" t="n" s="0">
-        <v>166401.0</v>
+        <v>246664.0</v>
       </c>
       <c r="B515" t="s" s="0">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C515" t="s" s="0">
         <v>4</v>
@@ -6860,10 +6983,10 @@
     </row>
     <row r="516">
       <c r="A516" t="n" s="0">
-        <v>166402.0</v>
+        <v>246665.0</v>
       </c>
       <c r="B516" t="s" s="0">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="C516" t="s" s="0">
         <v>4</v>
@@ -6871,10 +6994,10 @@
     </row>
     <row r="517">
       <c r="A517" t="n" s="0">
-        <v>166403.0</v>
+        <v>246666.0</v>
       </c>
       <c r="B517" t="s" s="0">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C517" t="s" s="0">
         <v>4</v>
@@ -6882,10 +7005,10 @@
     </row>
     <row r="518">
       <c r="A518" t="n" s="0">
-        <v>166404.0</v>
+        <v>246667.0</v>
       </c>
       <c r="B518" t="s" s="0">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C518" t="s" s="0">
         <v>4</v>
@@ -6893,10 +7016,10 @@
     </row>
     <row r="519">
       <c r="A519" t="n" s="0">
-        <v>166405.0</v>
+        <v>246668.0</v>
       </c>
       <c r="B519" t="s" s="0">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="C519" t="s" s="0">
         <v>4</v>
@@ -6904,10 +7027,10 @@
     </row>
     <row r="520">
       <c r="A520" t="n" s="0">
-        <v>166406.0</v>
+        <v>246669.0</v>
       </c>
       <c r="B520" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C520" t="s" s="0">
         <v>4</v>
@@ -6915,10 +7038,10 @@
     </row>
     <row r="521">
       <c r="A521" t="n" s="0">
-        <v>166407.0</v>
+        <v>246670.0</v>
       </c>
       <c r="B521" t="s" s="0">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C521" t="s" s="0">
         <v>4</v>
@@ -6926,10 +7049,10 @@
     </row>
     <row r="522">
       <c r="A522" t="n" s="0">
-        <v>166408.0</v>
+        <v>246671.0</v>
       </c>
       <c r="B522" t="s" s="0">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C522" t="s" s="0">
         <v>4</v>
@@ -6937,10 +7060,10 @@
     </row>
     <row r="523">
       <c r="A523" t="n" s="0">
-        <v>166409.0</v>
+        <v>246672.0</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C523" t="s" s="0">
         <v>4</v>
@@ -6948,10 +7071,10 @@
     </row>
     <row r="524">
       <c r="A524" t="n" s="0">
-        <v>166410.0</v>
+        <v>246673.0</v>
       </c>
       <c r="B524" t="s" s="0">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C524" t="s" s="0">
         <v>4</v>
@@ -6959,10 +7082,10 @@
     </row>
     <row r="525">
       <c r="A525" t="n" s="0">
-        <v>166411.0</v>
+        <v>246674.0</v>
       </c>
       <c r="B525" t="s" s="0">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="C525" t="s" s="0">
         <v>4</v>
@@ -6970,10 +7093,10 @@
     </row>
     <row r="526">
       <c r="A526" t="n" s="0">
-        <v>166412.0</v>
+        <v>246675.0</v>
       </c>
       <c r="B526" t="s" s="0">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="C526" t="s" s="0">
         <v>4</v>
@@ -6981,10 +7104,10 @@
     </row>
     <row r="527">
       <c r="A527" t="n" s="0">
-        <v>166413.0</v>
+        <v>246676.0</v>
       </c>
       <c r="B527" t="s" s="0">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C527" t="s" s="0">
         <v>4</v>
@@ -6992,10 +7115,10 @@
     </row>
     <row r="528">
       <c r="A528" t="n" s="0">
-        <v>166414.0</v>
+        <v>246677.0</v>
       </c>
       <c r="B528" t="s" s="0">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C528" t="s" s="0">
         <v>4</v>
@@ -7003,10 +7126,10 @@
     </row>
     <row r="529">
       <c r="A529" t="n" s="0">
-        <v>166415.0</v>
+        <v>246678.0</v>
       </c>
       <c r="B529" t="s" s="0">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C529" t="s" s="0">
         <v>4</v>
@@ -7014,10 +7137,10 @@
     </row>
     <row r="530">
       <c r="A530" t="n" s="0">
-        <v>166416.0</v>
+        <v>246679.0</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C530" t="s" s="0">
         <v>4</v>
@@ -7025,10 +7148,10 @@
     </row>
     <row r="531">
       <c r="A531" t="n" s="0">
-        <v>166417.0</v>
+        <v>246680.0</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="C531" t="s" s="0">
         <v>4</v>
@@ -7036,10 +7159,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n" s="0">
-        <v>166418.0</v>
+        <v>246681.0</v>
       </c>
       <c r="B532" t="s" s="0">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="C532" t="s" s="0">
         <v>4</v>
@@ -7047,10 +7170,10 @@
     </row>
     <row r="533">
       <c r="A533" t="n" s="0">
-        <v>166419.0</v>
+        <v>246682.0</v>
       </c>
       <c r="B533" t="s" s="0">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="C533" t="s" s="0">
         <v>4</v>
@@ -7058,10 +7181,10 @@
     </row>
     <row r="534">
       <c r="A534" t="n" s="0">
-        <v>166420.0</v>
+        <v>246683.0</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C534" t="s" s="0">
         <v>4</v>
@@ -7069,10 +7192,10 @@
     </row>
     <row r="535">
       <c r="A535" t="n" s="0">
-        <v>166421.0</v>
+        <v>246684.0</v>
       </c>
       <c r="B535" t="s" s="0">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="C535" t="s" s="0">
         <v>4</v>
@@ -7080,10 +7203,10 @@
     </row>
     <row r="536">
       <c r="A536" t="n" s="0">
-        <v>166422.0</v>
+        <v>246685.0</v>
       </c>
       <c r="B536" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C536" t="s" s="0">
         <v>4</v>
@@ -7091,10 +7214,10 @@
     </row>
     <row r="537">
       <c r="A537" t="n" s="0">
-        <v>166423.0</v>
+        <v>246686.0</v>
       </c>
       <c r="B537" t="s" s="0">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="C537" t="s" s="0">
         <v>4</v>
@@ -7102,10 +7225,10 @@
     </row>
     <row r="538">
       <c r="A538" t="n" s="0">
-        <v>166424.0</v>
+        <v>246687.0</v>
       </c>
       <c r="B538" t="s" s="0">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C538" t="s" s="0">
         <v>4</v>
@@ -7113,10 +7236,10 @@
     </row>
     <row r="539">
       <c r="A539" t="n" s="0">
-        <v>166425.0</v>
+        <v>246688.0</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="C539" t="s" s="0">
         <v>4</v>
@@ -7124,10 +7247,10 @@
     </row>
     <row r="540">
       <c r="A540" t="n" s="0">
-        <v>166426.0</v>
+        <v>246689.0</v>
       </c>
       <c r="B540" t="s" s="0">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="C540" t="s" s="0">
         <v>4</v>
@@ -7135,10 +7258,10 @@
     </row>
     <row r="541">
       <c r="A541" t="n" s="0">
-        <v>166427.0</v>
+        <v>246690.0</v>
       </c>
       <c r="B541" t="s" s="0">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="C541" t="s" s="0">
         <v>4</v>
@@ -7146,10 +7269,10 @@
     </row>
     <row r="542">
       <c r="A542" t="n" s="0">
-        <v>166428.0</v>
+        <v>246691.0</v>
       </c>
       <c r="B542" t="s" s="0">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="C542" t="s" s="0">
         <v>4</v>
@@ -7157,10 +7280,10 @@
     </row>
     <row r="543">
       <c r="A543" t="n" s="0">
-        <v>166429.0</v>
+        <v>246692.0</v>
       </c>
       <c r="B543" t="s" s="0">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="C543" t="s" s="0">
         <v>4</v>
@@ -7168,10 +7291,10 @@
     </row>
     <row r="544">
       <c r="A544" t="n" s="0">
-        <v>166430.0</v>
+        <v>246693.0</v>
       </c>
       <c r="B544" t="s" s="0">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="C544" t="s" s="0">
         <v>4</v>
@@ -7179,10 +7302,10 @@
     </row>
     <row r="545">
       <c r="A545" t="n" s="0">
-        <v>166431.0</v>
+        <v>246694.0</v>
       </c>
       <c r="B545" t="s" s="0">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="C545" t="s" s="0">
         <v>4</v>
@@ -7190,10 +7313,10 @@
     </row>
     <row r="546">
       <c r="A546" t="n" s="0">
-        <v>166432.0</v>
+        <v>246695.0</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="C546" t="s" s="0">
         <v>4</v>
@@ -7201,10 +7324,10 @@
     </row>
     <row r="547">
       <c r="A547" t="n" s="0">
-        <v>166433.0</v>
+        <v>246696.0</v>
       </c>
       <c r="B547" t="s" s="0">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="C547" t="s" s="0">
         <v>4</v>
@@ -7212,10 +7335,10 @@
     </row>
     <row r="548">
       <c r="A548" t="n" s="0">
-        <v>166434.0</v>
+        <v>246697.0</v>
       </c>
       <c r="B548" t="s" s="0">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="C548" t="s" s="0">
         <v>4</v>
@@ -7223,10 +7346,10 @@
     </row>
     <row r="549">
       <c r="A549" t="n" s="0">
-        <v>166435.0</v>
+        <v>246698.0</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="C549" t="s" s="0">
         <v>4</v>
@@ -7234,12 +7357,936 @@
     </row>
     <row r="550">
       <c r="A550" t="n" s="0">
-        <v>166436.0</v>
+        <v>246699.0</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C550" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="0">
+        <v>246700.0</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="0">
+        <v>246701.0</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="0">
+        <v>246702.0</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="0">
+        <v>246703.0</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="0">
+        <v>246704.0</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="0">
+        <v>246705.0</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="0">
+        <v>246706.0</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="0">
+        <v>246707.0</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="0">
+        <v>246708.0</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="0">
+        <v>246709.0</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n" s="0">
+        <v>246710.0</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n" s="0">
+        <v>246711.0</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n" s="0">
+        <v>246712.0</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n" s="0">
+        <v>246713.0</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n" s="0">
+        <v>246714.0</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n" s="0">
+        <v>246715.0</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="0">
+        <v>246716.0</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="0">
+        <v>246717.0</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="0">
+        <v>246718.0</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="0">
+        <v>246719.0</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="0">
+        <v>246720.0</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="0">
+        <v>246721.0</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n" s="0">
+        <v>246722.0</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="0">
+        <v>246723.0</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="0">
+        <v>246724.0</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="0">
+        <v>246725.0</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="0">
+        <v>246726.0</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="0">
+        <v>246727.0</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="0">
+        <v>246728.0</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n" s="0">
+        <v>246729.0</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n" s="0">
+        <v>246730.0</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n" s="0">
+        <v>246731.0</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n" s="0">
+        <v>246732.0</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n" s="0">
+        <v>246733.0</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n" s="0">
+        <v>246734.0</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="0">
+        <v>246735.0</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="0">
+        <v>246736.0</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="0">
+        <v>246737.0</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="0">
+        <v>246738.0</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="0">
+        <v>246739.0</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="0">
+        <v>246740.0</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="0">
+        <v>246741.0</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="0">
+        <v>246742.0</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n" s="0">
+        <v>246743.0</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="0">
+        <v>246744.0</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="0">
+        <v>246745.0</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="0">
+        <v>246746.0</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="0">
+        <v>246747.0</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="0">
+        <v>246748.0</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n" s="0">
+        <v>246749.0</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n" s="0">
+        <v>246750.0</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n" s="0">
+        <v>246751.0</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n" s="0">
+        <v>246752.0</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n" s="0">
+        <v>246753.0</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n" s="0">
+        <v>246754.0</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n" s="0">
+        <v>246755.0</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="0">
+        <v>246756.0</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="0">
+        <v>246757.0</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="0">
+        <v>246758.0</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="0">
+        <v>246759.0</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="0">
+        <v>246760.0</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="0">
+        <v>246761.0</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="0">
+        <v>246762.0</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n" s="0">
+        <v>246763.0</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="0">
+        <v>246764.0</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="0">
+        <v>246765.0</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="0">
+        <v>246766.0</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="0">
+        <v>246767.0</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="0">
+        <v>246768.0</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="0">
+        <v>246769.0</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n" s="0">
+        <v>246770.0</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n" s="0">
+        <v>246771.0</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n" s="0">
+        <v>246772.0</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n" s="0">
+        <v>246773.0</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n" s="0">
+        <v>246774.0</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n" s="0">
+        <v>246775.0</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n" s="0">
+        <v>246776.0</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="0">
+        <v>246777.0</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="0">
+        <v>246778.0</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="0">
+        <v>246779.0</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="0">
+        <v>246780.0</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="0">
+        <v>246781.0</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="0">
+        <v>246782.0</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="0">
+        <v>246783.0</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="C634" t="s" s="0">
         <v>4</v>
       </c>
     </row>
